--- a/biology/Botanique/Trithrinax_schizophylla/Trithrinax_schizophylla.xlsx
+++ b/biology/Botanique/Trithrinax_schizophylla/Trithrinax_schizophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trithrinax schizophylla, communément appelée carandilla dans la région orientale bolivienne de saó, est une espèce végétale de la famille des Arecaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit palmier est endémique du district phytogéographique de Chaqueño Occidental. Il est distribué à l'ouest du Paraguay, au sud de la Bolivie et au centre-nord de l'Argentine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit palmier est endémique du district phytogéographique de Chaqueño Occidental. Il est distribué à l'ouest du Paraguay, au sud de la Bolivie et au centre-nord de l'Argentine,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce très rustique, qui pousse dans des zones de sol limoneux ou sableux, très sèches en hiver, et assez froides en été, avec une pluviométrie de 500 à 600 mm par an. Il supporte le feu, car il pousse dans des zones où la forêt est détruite par cette méthode.
 </t>
@@ -573,7 +589,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbuste ne dépassant pas 4 m de hauteur (rarement 6), possède des feuilles palmées  de 120-150 cm de long, avec de fortes épines à la base de chaque pétiole. Il se distingue par la conservation des restes des frondes mortes attachées au trône, ce qui lui donne un aspect caractéristique.
 </t>
@@ -604,18 +622,20 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Trithrinax schizophylla  a été décrit par Carl Georg Oscar Drude, et publié en Flore Brasiliensis 3(2): 551, pl. 130. 1882[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Trithrinax schizophylla  a été décrit par Carl Georg Oscar Drude, et publié en Flore Brasiliensis 3(2): 551, pl. 130. 1882.
 Etymologie
 Trithrinax: Nom générique qui provient de l'idiome grec tri signifie trois, et de thrinax tridente.
 schizophylla: épithète Latin qui signifie "avec des feuilles divisées".
-Variétés acceptées [4]
+Variétés acceptées 
 Trithrinax schizophylla var. schizophylla
 Trithrinax schizophylla var. biflabellata 		(Barb.Rodr.) Án.Cano &amp; F.W.Stauffer
 Synonymie
 Diodosperma burity H.wendl.
-Trithrinax biflabellata Barb. &amp; Rodr. 1899[5]</t>
+Trithrinax biflabellata Barb. &amp; Rodr. 1899</t>
         </is>
       </c>
     </row>
@@ -643,7 +663,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec les feuilles de ce palmier sont fabriquées des fibres qui ressemblent à de la "paille" et avec ces  "pailles" se font les  chapeaux typiques « alares cambas », qui sont optimaux pour s'abriter de la chaleur et de la lumière solaire grâce a son tissu tressé  bien ventilé, léger et  imperméable pour éviter l'isolation et les autres incidents climatiques de la région.
 </t>
